--- a/codingame_scraper/medium_20250202.xlsx
+++ b/codingame_scraper/medium_20250202.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phili\OneDrive\Documents\Programmation\codingame_py\codingame_scraper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5102170ae7533958/Documents/Programmation/codingame_py/codingame_scraper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E09026CA-BD3F-41B4-9345-23067BD1B31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{E09026CA-BD3F-41B4-9345-23067BD1B31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CE803ED-B4B6-4893-98F0-7BABB9ADC5A8}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="15552" windowHeight="18576" xr2:uid="{1162784B-948C-44FC-AD72-3852461035BB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{1162784B-948C-44FC-AD72-3852461035BB}"/>
   </bookViews>
   <sheets>
     <sheet name="medium_20250202" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="335">
   <si>
     <t>titre</t>
   </si>
@@ -1088,9 +1088,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1110,6 +1109,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1459,7 +1462,7 @@
   <dimension ref="A1:C333"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:F9"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1502,7 +1505,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
@@ -1513,7 +1516,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
@@ -1524,7 +1527,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
@@ -1535,7 +1538,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7">
@@ -1546,7 +1549,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -1557,7 +1560,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9">
@@ -1568,7 +1571,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -1579,7 +1582,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -1590,7 +1593,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12">
@@ -1601,7 +1604,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>8</v>
       </c>
       <c r="B13">
@@ -1612,7 +1615,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>5</v>
       </c>
       <c r="B14">
@@ -1623,7 +1626,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>11</v>
       </c>
       <c r="B15">
@@ -1634,7 +1637,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -1645,7 +1648,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>12</v>
       </c>
       <c r="B17">
@@ -1656,7 +1659,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>296</v>
       </c>
       <c r="B18">
@@ -1667,7 +1670,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>144</v>
       </c>
       <c r="B19">
@@ -1678,23 +1681,29 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>126</v>
       </c>
       <c r="B20">
         <v>3276</v>
       </c>
+      <c r="C20" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>254</v>
       </c>
       <c r="B21">
         <v>2716</v>
       </c>
+      <c r="C21" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>32</v>
       </c>
       <c r="B22">
@@ -1705,15 +1714,18 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>295</v>
       </c>
       <c r="B23">
         <v>2507</v>
       </c>
+      <c r="C23" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>160</v>
       </c>
       <c r="B24">
@@ -1721,7 +1733,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>211</v>
       </c>
       <c r="B25">
@@ -1729,7 +1741,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>61</v>
       </c>
       <c r="B26">
@@ -1737,7 +1749,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>156</v>
       </c>
       <c r="B27">
@@ -1745,7 +1757,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>39</v>
       </c>
       <c r="B28">
@@ -1753,7 +1765,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>231</v>
       </c>
       <c r="B29">
@@ -1761,7 +1773,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>177</v>
       </c>
       <c r="B30">
@@ -1769,7 +1781,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>45</v>
       </c>
       <c r="B31">
@@ -1777,7 +1789,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>145</v>
       </c>
       <c r="B32">
@@ -1785,7 +1797,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>209</v>
       </c>
       <c r="B33">
@@ -1793,7 +1805,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>257</v>
       </c>
       <c r="B34">
@@ -1801,7 +1813,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>201</v>
       </c>
       <c r="B35">
@@ -1809,7 +1821,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>173</v>
       </c>
       <c r="B36">
@@ -1817,7 +1829,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>167</v>
       </c>
       <c r="B37">
@@ -1825,7 +1837,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>248</v>
       </c>
       <c r="B38">
@@ -1833,7 +1845,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>319</v>
       </c>
       <c r="B39">
@@ -1841,7 +1853,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+      <c r="A40" t="s">
         <v>188</v>
       </c>
       <c r="B40">
@@ -1849,7 +1861,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+      <c r="A41" t="s">
         <v>149</v>
       </c>
       <c r="B41">
@@ -1857,7 +1869,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+      <c r="A42" t="s">
         <v>242</v>
       </c>
       <c r="B42">
@@ -1865,7 +1877,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+      <c r="A43" t="s">
         <v>185</v>
       </c>
       <c r="B43">
@@ -1873,7 +1885,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+      <c r="A44" t="s">
         <v>168</v>
       </c>
       <c r="B44">
@@ -1881,7 +1893,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+      <c r="A45" t="s">
         <v>98</v>
       </c>
       <c r="B45">
@@ -1889,7 +1901,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+      <c r="A46" t="s">
         <v>283</v>
       </c>
       <c r="B46">
@@ -1897,7 +1909,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+      <c r="A47" t="s">
         <v>100</v>
       </c>
       <c r="B47">
@@ -1905,7 +1917,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
+      <c r="A48" t="s">
         <v>278</v>
       </c>
       <c r="B48">
@@ -1913,7 +1925,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+      <c r="A49" t="s">
         <v>243</v>
       </c>
       <c r="B49">
@@ -1921,7 +1933,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+      <c r="A50" t="s">
         <v>197</v>
       </c>
       <c r="B50">
@@ -1929,7 +1941,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+      <c r="A51" t="s">
         <v>289</v>
       </c>
       <c r="B51">
@@ -1937,7 +1949,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+      <c r="A52" t="s">
         <v>238</v>
       </c>
       <c r="B52">
@@ -1945,7 +1957,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
+      <c r="A53" t="s">
         <v>60</v>
       </c>
       <c r="B53">
@@ -1953,7 +1965,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+      <c r="A54" t="s">
         <v>121</v>
       </c>
       <c r="B54">
@@ -1961,7 +1973,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
+      <c r="A55" t="s">
         <v>93</v>
       </c>
       <c r="B55">
@@ -1969,7 +1981,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
+      <c r="A56" t="s">
         <v>46</v>
       </c>
       <c r="B56">
@@ -1977,7 +1989,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
+      <c r="A57" t="s">
         <v>194</v>
       </c>
       <c r="B57">
@@ -1985,7 +1997,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
+      <c r="A58" t="s">
         <v>116</v>
       </c>
       <c r="B58">
@@ -1993,7 +2005,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
+      <c r="A59" t="s">
         <v>76</v>
       </c>
       <c r="B59">
@@ -2001,7 +2013,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
+      <c r="A60" t="s">
         <v>202</v>
       </c>
       <c r="B60">
@@ -2009,7 +2021,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
+      <c r="A61" t="s">
         <v>171</v>
       </c>
       <c r="B61">
@@ -2017,7 +2029,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
+      <c r="A62" t="s">
         <v>303</v>
       </c>
       <c r="B62">
@@ -2025,7 +2037,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
+      <c r="A63" t="s">
         <v>43</v>
       </c>
       <c r="B63">
@@ -2033,7 +2045,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
+      <c r="A64" t="s">
         <v>199</v>
       </c>
       <c r="B64">
@@ -2041,7 +2053,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
+      <c r="A65" t="s">
         <v>207</v>
       </c>
       <c r="B65">
@@ -2049,7 +2061,7 @@
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
+      <c r="A66" t="s">
         <v>115</v>
       </c>
       <c r="B66">
@@ -2057,7 +2069,7 @@
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
+      <c r="A67" t="s">
         <v>62</v>
       </c>
       <c r="B67">
@@ -2065,7 +2077,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
+      <c r="A68" t="s">
         <v>176</v>
       </c>
       <c r="B68">
@@ -2073,7 +2085,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
+      <c r="A69" t="s">
         <v>88</v>
       </c>
       <c r="B69">
@@ -2081,7 +2093,7 @@
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
+      <c r="A70" t="s">
         <v>306</v>
       </c>
       <c r="B70">
@@ -2089,7 +2101,7 @@
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
+      <c r="A71" t="s">
         <v>142</v>
       </c>
       <c r="B71">
@@ -2097,7 +2109,7 @@
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
+      <c r="A72" t="s">
         <v>35</v>
       </c>
       <c r="B72">
@@ -2105,7 +2117,7 @@
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
+      <c r="A73" t="s">
         <v>225</v>
       </c>
       <c r="B73">
@@ -2113,7 +2125,7 @@
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
+      <c r="A74" t="s">
         <v>174</v>
       </c>
       <c r="B74">
@@ -2121,7 +2133,7 @@
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
+      <c r="A75" t="s">
         <v>196</v>
       </c>
       <c r="B75">
@@ -2129,7 +2141,7 @@
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
+      <c r="A76" t="s">
         <v>210</v>
       </c>
       <c r="B76">
@@ -2137,7 +2149,7 @@
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
+      <c r="A77" t="s">
         <v>63</v>
       </c>
       <c r="B77">
@@ -2145,7 +2157,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
+      <c r="A78" t="s">
         <v>127</v>
       </c>
       <c r="B78">
@@ -2153,7 +2165,7 @@
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
+      <c r="A79" t="s">
         <v>53</v>
       </c>
       <c r="B79">
@@ -2161,7 +2173,7 @@
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
+      <c r="A80" t="s">
         <v>178</v>
       </c>
       <c r="B80">
@@ -2169,7 +2181,7 @@
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
+      <c r="A81" t="s">
         <v>117</v>
       </c>
       <c r="B81">
@@ -2177,7 +2189,7 @@
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
+      <c r="A82" t="s">
         <v>87</v>
       </c>
       <c r="B82">
@@ -2185,7 +2197,7 @@
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
+      <c r="A83" t="s">
         <v>252</v>
       </c>
       <c r="B83">
@@ -2193,7 +2205,7 @@
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
+      <c r="A84" t="s">
         <v>120</v>
       </c>
       <c r="B84">
@@ -2201,7 +2213,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
+      <c r="A85" t="s">
         <v>205</v>
       </c>
       <c r="B85">
@@ -2209,7 +2221,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
+      <c r="A86" t="s">
         <v>91</v>
       </c>
       <c r="B86">
@@ -2217,7 +2229,7 @@
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
+      <c r="A87" t="s">
         <v>101</v>
       </c>
       <c r="B87">
@@ -2225,7 +2237,7 @@
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
+      <c r="A88" t="s">
         <v>228</v>
       </c>
       <c r="B88">
@@ -2233,7 +2245,7 @@
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
+      <c r="A89" t="s">
         <v>97</v>
       </c>
       <c r="B89">
@@ -2241,7 +2253,7 @@
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
+      <c r="A90" t="s">
         <v>214</v>
       </c>
       <c r="B90">
@@ -2249,7 +2261,7 @@
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
+      <c r="A91" t="s">
         <v>85</v>
       </c>
       <c r="B91">
@@ -2257,7 +2269,7 @@
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
+      <c r="A92" t="s">
         <v>226</v>
       </c>
       <c r="B92">
@@ -2265,7 +2277,7 @@
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
+      <c r="A93" t="s">
         <v>90</v>
       </c>
       <c r="B93">
@@ -2273,7 +2285,7 @@
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
+      <c r="A94" t="s">
         <v>164</v>
       </c>
       <c r="B94">
@@ -2281,7 +2293,7 @@
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="1" t="s">
+      <c r="A95" t="s">
         <v>74</v>
       </c>
       <c r="B95">
@@ -2289,7 +2301,7 @@
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="1" t="s">
+      <c r="A96" t="s">
         <v>80</v>
       </c>
       <c r="B96">
@@ -2297,7 +2309,7 @@
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
+      <c r="A97" t="s">
         <v>79</v>
       </c>
       <c r="B97">
@@ -2305,7 +2317,7 @@
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="1" t="s">
+      <c r="A98" t="s">
         <v>237</v>
       </c>
       <c r="B98">
@@ -2313,7 +2325,7 @@
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="s">
+      <c r="A99" t="s">
         <v>123</v>
       </c>
       <c r="B99">
@@ -2321,7 +2333,7 @@
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="1" t="s">
+      <c r="A100" t="s">
         <v>26</v>
       </c>
       <c r="B100">
@@ -2329,7 +2341,7 @@
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="1" t="s">
+      <c r="A101" t="s">
         <v>65</v>
       </c>
       <c r="B101">
@@ -2337,7 +2349,7 @@
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="1" t="s">
+      <c r="A102" t="s">
         <v>307</v>
       </c>
       <c r="B102">
@@ -2345,7 +2357,7 @@
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="1" t="s">
+      <c r="A103" t="s">
         <v>141</v>
       </c>
       <c r="B103">
@@ -2353,7 +2365,7 @@
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="1" t="s">
+      <c r="A104" t="s">
         <v>86</v>
       </c>
       <c r="B104">
@@ -2361,7 +2373,7 @@
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="1" t="s">
+      <c r="A105" t="s">
         <v>122</v>
       </c>
       <c r="B105">
@@ -2369,7 +2381,7 @@
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="1" t="s">
+      <c r="A106" t="s">
         <v>150</v>
       </c>
       <c r="B106">
@@ -2377,7 +2389,7 @@
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="1" t="s">
+      <c r="A107" t="s">
         <v>279</v>
       </c>
       <c r="B107">
@@ -2385,7 +2397,7 @@
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="1" t="s">
+      <c r="A108" t="s">
         <v>267</v>
       </c>
       <c r="B108">
@@ -2393,7 +2405,7 @@
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="1" t="s">
+      <c r="A109" t="s">
         <v>274</v>
       </c>
       <c r="B109">
@@ -2401,7 +2413,7 @@
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="1" t="s">
+      <c r="A110" t="s">
         <v>206</v>
       </c>
       <c r="B110">
@@ -2409,7 +2421,7 @@
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="1" t="s">
+      <c r="A111" t="s">
         <v>147</v>
       </c>
       <c r="B111">
@@ -2417,7 +2429,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="1" t="s">
+      <c r="A112" t="s">
         <v>270</v>
       </c>
       <c r="B112">
@@ -2425,7 +2437,7 @@
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="1" t="s">
+      <c r="A113" t="s">
         <v>151</v>
       </c>
       <c r="B113">
@@ -2433,7 +2445,7 @@
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="1" t="s">
+      <c r="A114" t="s">
         <v>81</v>
       </c>
       <c r="B114">
@@ -2441,7 +2453,7 @@
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="1" t="s">
+      <c r="A115" t="s">
         <v>96</v>
       </c>
       <c r="B115">
@@ -2449,7 +2461,7 @@
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" s="1" t="s">
+      <c r="A116" t="s">
         <v>261</v>
       </c>
       <c r="B116">
@@ -2457,7 +2469,7 @@
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" s="1" t="s">
+      <c r="A117" t="s">
         <v>227</v>
       </c>
       <c r="B117">
@@ -2465,7 +2477,7 @@
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="1" t="s">
+      <c r="A118" t="s">
         <v>84</v>
       </c>
       <c r="B118">
@@ -2473,7 +2485,7 @@
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" s="1" t="s">
+      <c r="A119" t="s">
         <v>66</v>
       </c>
       <c r="B119">
@@ -2481,7 +2493,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" s="1" t="s">
+      <c r="A120" t="s">
         <v>154</v>
       </c>
       <c r="B120">
@@ -2489,7 +2501,7 @@
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" s="1" t="s">
+      <c r="A121" t="s">
         <v>129</v>
       </c>
       <c r="B121">
@@ -2497,7 +2509,7 @@
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" s="1" t="s">
+      <c r="A122" t="s">
         <v>158</v>
       </c>
       <c r="B122">
@@ -2505,7 +2517,7 @@
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" s="1" t="s">
+      <c r="A123" t="s">
         <v>159</v>
       </c>
       <c r="B123">
@@ -2513,7 +2525,7 @@
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" s="1" t="s">
+      <c r="A124" t="s">
         <v>71</v>
       </c>
       <c r="B124">
@@ -2521,7 +2533,7 @@
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" s="1" t="s">
+      <c r="A125" t="s">
         <v>221</v>
       </c>
       <c r="B125">
@@ -2529,7 +2541,7 @@
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" s="1" t="s">
+      <c r="A126" t="s">
         <v>198</v>
       </c>
       <c r="B126">
@@ -2537,7 +2549,7 @@
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" s="1" t="s">
+      <c r="A127" t="s">
         <v>57</v>
       </c>
       <c r="B127">
@@ -2545,7 +2557,7 @@
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" s="1" t="s">
+      <c r="A128" t="s">
         <v>134</v>
       </c>
       <c r="B128">
@@ -2553,7 +2565,7 @@
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="1" t="s">
+      <c r="A129" t="s">
         <v>292</v>
       </c>
       <c r="B129">
@@ -2561,7 +2573,7 @@
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" s="1" t="s">
+      <c r="A130" t="s">
         <v>99</v>
       </c>
       <c r="B130">
@@ -2569,7 +2581,7 @@
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" s="1" t="s">
+      <c r="A131" t="s">
         <v>175</v>
       </c>
       <c r="B131">
@@ -2577,7 +2589,7 @@
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" s="1" t="s">
+      <c r="A132" t="s">
         <v>272</v>
       </c>
       <c r="B132">
@@ -2585,7 +2597,7 @@
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" s="1" t="s">
+      <c r="A133" t="s">
         <v>82</v>
       </c>
       <c r="B133">
@@ -2593,7 +2605,7 @@
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" s="1" t="s">
+      <c r="A134" t="s">
         <v>212</v>
       </c>
       <c r="B134">
@@ -2601,7 +2613,7 @@
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" s="1" t="s">
+      <c r="A135" t="s">
         <v>113</v>
       </c>
       <c r="B135">
@@ -2609,7 +2621,7 @@
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" s="1" t="s">
+      <c r="A136" t="s">
         <v>263</v>
       </c>
       <c r="B136">
@@ -2617,7 +2629,7 @@
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" s="1" t="s">
+      <c r="A137" t="s">
         <v>125</v>
       </c>
       <c r="B137">
@@ -2625,7 +2637,7 @@
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" s="1" t="s">
+      <c r="A138" t="s">
         <v>72</v>
       </c>
       <c r="B138">
@@ -2633,7 +2645,7 @@
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="1" t="s">
+      <c r="A139" t="s">
         <v>161</v>
       </c>
       <c r="B139">
@@ -2644,7 +2656,7 @@
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" s="1" t="s">
+      <c r="A140" t="s">
         <v>259</v>
       </c>
       <c r="B140">
@@ -2652,7 +2664,7 @@
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="1" t="s">
+      <c r="A141" t="s">
         <v>40</v>
       </c>
       <c r="B141">
@@ -2660,7 +2672,7 @@
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142" s="1" t="s">
+      <c r="A142" t="s">
         <v>304</v>
       </c>
       <c r="B142">
@@ -2668,7 +2680,7 @@
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" s="1" t="s">
+      <c r="A143" t="s">
         <v>172</v>
       </c>
       <c r="B143">
@@ -2676,7 +2688,7 @@
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" s="1" t="s">
+      <c r="A144" t="s">
         <v>83</v>
       </c>
       <c r="B144">
@@ -2684,7 +2696,7 @@
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" s="1" t="s">
+      <c r="A145" t="s">
         <v>153</v>
       </c>
       <c r="B145">
@@ -2692,7 +2704,7 @@
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" s="1" t="s">
+      <c r="A146" t="s">
         <v>50</v>
       </c>
       <c r="B146">
@@ -2700,7 +2712,7 @@
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" s="1" t="s">
+      <c r="A147" t="s">
         <v>235</v>
       </c>
       <c r="B147">
@@ -2708,7 +2720,7 @@
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" s="1" t="s">
+      <c r="A148" t="s">
         <v>284</v>
       </c>
       <c r="B148">
@@ -2716,7 +2728,7 @@
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" s="1" t="s">
+      <c r="A149" t="s">
         <v>163</v>
       </c>
       <c r="B149">
@@ -2724,7 +2736,7 @@
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" s="1" t="s">
+      <c r="A150" t="s">
         <v>247</v>
       </c>
       <c r="B150">
@@ -2732,7 +2744,7 @@
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" s="1" t="s">
+      <c r="A151" t="s">
         <v>102</v>
       </c>
       <c r="B151">
@@ -2740,7 +2752,7 @@
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" s="1" t="s">
+      <c r="A152" t="s">
         <v>269</v>
       </c>
       <c r="B152">
@@ -2748,7 +2760,7 @@
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" s="1" t="s">
+      <c r="A153" t="s">
         <v>67</v>
       </c>
       <c r="B153">
@@ -2756,7 +2768,7 @@
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" s="1" t="s">
+      <c r="A154" t="s">
         <v>195</v>
       </c>
       <c r="B154">
@@ -2764,7 +2776,7 @@
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155" s="1" t="s">
+      <c r="A155" t="s">
         <v>92</v>
       </c>
       <c r="B155">
@@ -2772,7 +2784,7 @@
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" s="1" t="s">
+      <c r="A156" t="s">
         <v>193</v>
       </c>
       <c r="B156">
@@ -2780,7 +2792,7 @@
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" s="1" t="s">
+      <c r="A157" t="s">
         <v>133</v>
       </c>
       <c r="B157">
@@ -2788,7 +2800,7 @@
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158" s="1" t="s">
+      <c r="A158" t="s">
         <v>75</v>
       </c>
       <c r="B158">
@@ -2796,7 +2808,7 @@
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159" s="1" t="s">
+      <c r="A159" t="s">
         <v>78</v>
       </c>
       <c r="B159">
@@ -2804,7 +2816,7 @@
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" s="1" t="s">
+      <c r="A160" t="s">
         <v>118</v>
       </c>
       <c r="B160">
@@ -2812,7 +2824,7 @@
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161" s="1" t="s">
+      <c r="A161" t="s">
         <v>49</v>
       </c>
       <c r="B161">
@@ -2820,7 +2832,7 @@
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162" s="1" t="s">
+      <c r="A162" t="s">
         <v>183</v>
       </c>
       <c r="B162">
@@ -2828,7 +2840,7 @@
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A163" s="1" t="s">
+      <c r="A163" t="s">
         <v>203</v>
       </c>
       <c r="B163">
@@ -2836,7 +2848,7 @@
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A164" s="1" t="s">
+      <c r="A164" t="s">
         <v>157</v>
       </c>
       <c r="B164">
@@ -2844,7 +2856,7 @@
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165" s="1" t="s">
+      <c r="A165" t="s">
         <v>189</v>
       </c>
       <c r="B165">
@@ -2852,7 +2864,7 @@
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A166" s="1" t="s">
+      <c r="A166" t="s">
         <v>253</v>
       </c>
       <c r="B166">
@@ -2860,7 +2872,7 @@
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167" s="1" t="s">
+      <c r="A167" t="s">
         <v>63</v>
       </c>
       <c r="B167">
@@ -2868,7 +2880,7 @@
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A168" s="1" t="s">
+      <c r="A168" t="s">
         <v>38</v>
       </c>
       <c r="B168">
@@ -2876,7 +2888,7 @@
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A169" s="1" t="s">
+      <c r="A169" t="s">
         <v>187</v>
       </c>
       <c r="B169">
@@ -2884,7 +2896,7 @@
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A170" s="1" t="s">
+      <c r="A170" t="s">
         <v>266</v>
       </c>
       <c r="B170">
@@ -2892,7 +2904,7 @@
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A171" s="1" t="s">
+      <c r="A171" t="s">
         <v>275</v>
       </c>
       <c r="B171">
@@ -2900,7 +2912,7 @@
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A172" s="1" t="s">
+      <c r="A172" t="s">
         <v>255</v>
       </c>
       <c r="B172">
@@ -2908,7 +2920,7 @@
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A173" s="1" t="s">
+      <c r="A173" t="s">
         <v>52</v>
       </c>
       <c r="B173">
@@ -2916,7 +2928,7 @@
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A174" s="1" t="s">
+      <c r="A174" t="s">
         <v>313</v>
       </c>
       <c r="B174">
@@ -2924,7 +2936,7 @@
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A175" s="1" t="s">
+      <c r="A175" t="s">
         <v>234</v>
       </c>
       <c r="B175">
@@ -2932,7 +2944,7 @@
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A176" s="1" t="s">
+      <c r="A176" t="s">
         <v>155</v>
       </c>
       <c r="B176">
@@ -2940,7 +2952,7 @@
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A177" s="1" t="s">
+      <c r="A177" t="s">
         <v>148</v>
       </c>
       <c r="B177">
@@ -2948,7 +2960,7 @@
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A178" s="1" t="s">
+      <c r="A178" t="s">
         <v>136</v>
       </c>
       <c r="B178">
@@ -2956,7 +2968,7 @@
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A179" s="1" t="s">
+      <c r="A179" t="s">
         <v>317</v>
       </c>
       <c r="B179">
@@ -2964,7 +2976,7 @@
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A180" s="1" t="s">
+      <c r="A180" t="s">
         <v>239</v>
       </c>
       <c r="B180">
@@ -2972,7 +2984,7 @@
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A181" s="1" t="s">
+      <c r="A181" t="s">
         <v>131</v>
       </c>
       <c r="B181">
@@ -2980,7 +2992,7 @@
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A182" s="1" t="s">
+      <c r="A182" t="s">
         <v>262</v>
       </c>
       <c r="B182">
@@ -2988,7 +3000,7 @@
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A183" s="1" t="s">
+      <c r="A183" t="s">
         <v>25</v>
       </c>
       <c r="B183">
@@ -2996,7 +3008,7 @@
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A184" s="1" t="s">
+      <c r="A184" t="s">
         <v>244</v>
       </c>
       <c r="B184">
@@ -3004,7 +3016,7 @@
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A185" s="1" t="s">
+      <c r="A185" t="s">
         <v>280</v>
       </c>
       <c r="B185">
@@ -3012,7 +3024,7 @@
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A186" s="1" t="s">
+      <c r="A186" t="s">
         <v>42</v>
       </c>
       <c r="B186">
@@ -3020,7 +3032,7 @@
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A187" s="1" t="s">
+      <c r="A187" t="s">
         <v>107</v>
       </c>
       <c r="B187">
@@ -3028,7 +3040,7 @@
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A188" s="1" t="s">
+      <c r="A188" t="s">
         <v>184</v>
       </c>
       <c r="B188">
@@ -3036,7 +3048,7 @@
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A189" s="1" t="s">
+      <c r="A189" t="s">
         <v>112</v>
       </c>
       <c r="B189">
@@ -3044,7 +3056,7 @@
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A190" s="1" t="s">
+      <c r="A190" t="s">
         <v>245</v>
       </c>
       <c r="B190">
@@ -3052,7 +3064,7 @@
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A191" s="1" t="s">
+      <c r="A191" t="s">
         <v>36</v>
       </c>
       <c r="B191">
@@ -3060,7 +3072,7 @@
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A192" s="1" t="s">
+      <c r="A192" t="s">
         <v>24</v>
       </c>
       <c r="B192">
@@ -3068,7 +3080,7 @@
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A193" s="1" t="s">
+      <c r="A193" t="s">
         <v>119</v>
       </c>
       <c r="B193">
@@ -3076,7 +3088,7 @@
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A194" s="1" t="s">
+      <c r="A194" t="s">
         <v>215</v>
       </c>
       <c r="B194">
@@ -3084,7 +3096,7 @@
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A195" s="1" t="s">
+      <c r="A195" t="s">
         <v>220</v>
       </c>
       <c r="B195">
@@ -3092,7 +3104,7 @@
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A196" s="1" t="s">
+      <c r="A196" t="s">
         <v>308</v>
       </c>
       <c r="B196">
@@ -3100,7 +3112,7 @@
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A197" s="1" t="s">
+      <c r="A197" t="s">
         <v>328</v>
       </c>
       <c r="B197">
@@ -3108,7 +3120,7 @@
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A198" s="1" t="s">
+      <c r="A198" t="s">
         <v>218</v>
       </c>
       <c r="B198">
@@ -3116,7 +3128,7 @@
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A199" s="1" t="s">
+      <c r="A199" t="s">
         <v>311</v>
       </c>
       <c r="B199">
@@ -3124,7 +3136,7 @@
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A200" s="1" t="s">
+      <c r="A200" t="s">
         <v>114</v>
       </c>
       <c r="B200">
@@ -3132,7 +3144,7 @@
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A201" s="1" t="s">
+      <c r="A201" t="s">
         <v>146</v>
       </c>
       <c r="B201">
@@ -3140,7 +3152,7 @@
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A202" s="1" t="s">
+      <c r="A202" t="s">
         <v>68</v>
       </c>
       <c r="B202">
@@ -3148,7 +3160,7 @@
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A203" s="1" t="s">
+      <c r="A203" t="s">
         <v>186</v>
       </c>
       <c r="B203">
@@ -3156,7 +3168,7 @@
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A204" s="1" t="s">
+      <c r="A204" t="s">
         <v>236</v>
       </c>
       <c r="B204">
@@ -3164,7 +3176,7 @@
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A205" s="1" t="s">
+      <c r="A205" t="s">
         <v>200</v>
       </c>
       <c r="B205">
@@ -3172,7 +3184,7 @@
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A206" s="1" t="s">
+      <c r="A206" t="s">
         <v>298</v>
       </c>
       <c r="B206">
@@ -3180,7 +3192,7 @@
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A207" s="1" t="s">
+      <c r="A207" t="s">
         <v>265</v>
       </c>
       <c r="B207">
@@ -3188,7 +3200,7 @@
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A208" s="1" t="s">
+      <c r="A208" t="s">
         <v>290</v>
       </c>
       <c r="B208">
@@ -3196,7 +3208,7 @@
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A209" s="1" t="s">
+      <c r="A209" t="s">
         <v>73</v>
       </c>
       <c r="B209">
@@ -3204,7 +3216,7 @@
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A210" s="1" t="s">
+      <c r="A210" t="s">
         <v>294</v>
       </c>
       <c r="B210">
@@ -3212,7 +3224,7 @@
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A211" s="1" t="s">
+      <c r="A211" t="s">
         <v>299</v>
       </c>
       <c r="B211">
@@ -3220,7 +3232,7 @@
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A212" s="1" t="s">
+      <c r="A212" t="s">
         <v>315</v>
       </c>
       <c r="B212">
@@ -3228,7 +3240,7 @@
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A213" s="1" t="s">
+      <c r="A213" t="s">
         <v>327</v>
       </c>
       <c r="B213">
@@ -3236,7 +3248,7 @@
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A214" s="1" t="s">
+      <c r="A214" t="s">
         <v>291</v>
       </c>
       <c r="B214">
@@ -3244,7 +3256,7 @@
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A215" s="1" t="s">
+      <c r="A215" t="s">
         <v>137</v>
       </c>
       <c r="B215">
@@ -3252,7 +3264,7 @@
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A216" s="1" t="s">
+      <c r="A216" t="s">
         <v>180</v>
       </c>
       <c r="B216">
@@ -3260,7 +3272,7 @@
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A217" s="1" t="s">
+      <c r="A217" t="s">
         <v>314</v>
       </c>
       <c r="B217">
@@ -3268,7 +3280,7 @@
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A218" s="1" t="s">
+      <c r="A218" t="s">
         <v>301</v>
       </c>
       <c r="B218">
@@ -3276,7 +3288,7 @@
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A219" s="1" t="s">
+      <c r="A219" t="s">
         <v>250</v>
       </c>
       <c r="B219">
@@ -3284,7 +3296,7 @@
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A220" s="1" t="s">
+      <c r="A220" t="s">
         <v>20</v>
       </c>
       <c r="B220">
@@ -3292,7 +3304,7 @@
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A221" s="1" t="s">
+      <c r="A221" t="s">
         <v>47</v>
       </c>
       <c r="B221">
@@ -3300,7 +3312,7 @@
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A222" s="1" t="s">
+      <c r="A222" t="s">
         <v>27</v>
       </c>
       <c r="B222">
@@ -3308,7 +3320,7 @@
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A223" s="1" t="s">
+      <c r="A223" t="s">
         <v>48</v>
       </c>
       <c r="B223">
@@ -3316,7 +3328,7 @@
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A224" s="1" t="s">
+      <c r="A224" t="s">
         <v>300</v>
       </c>
       <c r="B224">
@@ -3324,7 +3336,7 @@
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A225" s="1" t="s">
+      <c r="A225" t="s">
         <v>309</v>
       </c>
       <c r="B225">
@@ -3332,7 +3344,7 @@
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A226" s="1" t="s">
+      <c r="A226" t="s">
         <v>281</v>
       </c>
       <c r="B226">
@@ -3340,7 +3352,7 @@
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A227" s="1" t="s">
+      <c r="A227" t="s">
         <v>95</v>
       </c>
       <c r="B227">
@@ -3348,7 +3360,7 @@
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A228" s="1" t="s">
+      <c r="A228" t="s">
         <v>241</v>
       </c>
       <c r="B228">
@@ -3356,7 +3368,7 @@
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A229" s="1" t="s">
+      <c r="A229" t="s">
         <v>69</v>
       </c>
       <c r="B229">
@@ -3364,7 +3376,7 @@
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A230" s="1" t="s">
+      <c r="A230" t="s">
         <v>124</v>
       </c>
       <c r="B230">
@@ -3372,7 +3384,7 @@
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A231" s="1" t="s">
+      <c r="A231" t="s">
         <v>28</v>
       </c>
       <c r="B231">
@@ -3380,7 +3392,7 @@
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A232" s="1" t="s">
+      <c r="A232" t="s">
         <v>322</v>
       </c>
       <c r="B232">
@@ -3388,7 +3400,7 @@
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A233" s="1" t="s">
+      <c r="A233" t="s">
         <v>305</v>
       </c>
       <c r="B233">
@@ -3396,7 +3408,7 @@
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A234" s="1" t="s">
+      <c r="A234" t="s">
         <v>111</v>
       </c>
       <c r="B234">
@@ -3404,7 +3416,7 @@
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A235" s="1" t="s">
+      <c r="A235" t="s">
         <v>128</v>
       </c>
       <c r="B235">
@@ -3412,7 +3424,7 @@
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A236" s="1" t="s">
+      <c r="A236" t="s">
         <v>169</v>
       </c>
       <c r="B236">
@@ -3420,7 +3432,7 @@
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A237" s="1" t="s">
+      <c r="A237" t="s">
         <v>318</v>
       </c>
       <c r="B237">
@@ -3428,7 +3440,7 @@
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A238" s="1" t="s">
+      <c r="A238" t="s">
         <v>258</v>
       </c>
       <c r="B238">
@@ -3436,7 +3448,7 @@
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A239" s="1" t="s">
+      <c r="A239" t="s">
         <v>23</v>
       </c>
       <c r="B239">
@@ -3444,7 +3456,7 @@
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A240" s="1" t="s">
+      <c r="A240" t="s">
         <v>103</v>
       </c>
       <c r="B240">
@@ -3452,7 +3464,7 @@
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A241" s="1" t="s">
+      <c r="A241" t="s">
         <v>70</v>
       </c>
       <c r="B241">
@@ -3460,7 +3472,7 @@
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A242" s="1" t="s">
+      <c r="A242" t="s">
         <v>224</v>
       </c>
       <c r="B242">
@@ -3468,7 +3480,7 @@
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A243" s="1" t="s">
+      <c r="A243" t="s">
         <v>312</v>
       </c>
       <c r="B243">
@@ -3476,7 +3488,7 @@
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A244" s="1" t="s">
+      <c r="A244" t="s">
         <v>22</v>
       </c>
       <c r="B244">
@@ -3484,7 +3496,7 @@
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A245" s="1" t="s">
+      <c r="A245" t="s">
         <v>51</v>
       </c>
       <c r="B245">
@@ -3492,7 +3504,7 @@
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A246" s="1" t="s">
+      <c r="A246" t="s">
         <v>240</v>
       </c>
       <c r="B246">
@@ -3500,7 +3512,7 @@
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A247" s="1" t="s">
+      <c r="A247" t="s">
         <v>77</v>
       </c>
       <c r="B247">
@@ -3508,7 +3520,7 @@
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A248" s="1" t="s">
+      <c r="A248" t="s">
         <v>260</v>
       </c>
       <c r="B248">
@@ -3516,7 +3528,7 @@
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A249" s="1" t="s">
+      <c r="A249" t="s">
         <v>276</v>
       </c>
       <c r="B249">
@@ -3524,7 +3536,7 @@
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A250" s="1" t="s">
+      <c r="A250" t="s">
         <v>37</v>
       </c>
       <c r="B250">
@@ -3532,7 +3544,7 @@
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A251" s="1" t="s">
+      <c r="A251" t="s">
         <v>277</v>
       </c>
       <c r="B251">
@@ -3540,7 +3552,7 @@
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A252" s="1" t="s">
+      <c r="A252" t="s">
         <v>182</v>
       </c>
       <c r="B252">
@@ -3548,7 +3560,7 @@
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A253" s="1" t="s">
+      <c r="A253" t="s">
         <v>302</v>
       </c>
       <c r="B253">
@@ -3556,7 +3568,7 @@
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A254" s="1" t="s">
+      <c r="A254" t="s">
         <v>323</v>
       </c>
       <c r="B254">
@@ -3564,7 +3576,7 @@
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A255" s="1" t="s">
+      <c r="A255" t="s">
         <v>282</v>
       </c>
       <c r="B255">
@@ -3572,7 +3584,7 @@
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A256" s="1" t="s">
+      <c r="A256" t="s">
         <v>320</v>
       </c>
       <c r="B256">
@@ -3580,7 +3592,7 @@
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A257" s="1" t="s">
+      <c r="A257" t="s">
         <v>31</v>
       </c>
       <c r="B257">
@@ -3588,7 +3600,7 @@
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A258" s="1" t="s">
+      <c r="A258" t="s">
         <v>44</v>
       </c>
       <c r="B258">
@@ -3596,7 +3608,7 @@
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A259" s="1" t="s">
+      <c r="A259" t="s">
         <v>108</v>
       </c>
       <c r="B259">
@@ -3604,7 +3616,7 @@
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A260" s="1" t="s">
+      <c r="A260" t="s">
         <v>232</v>
       </c>
       <c r="B260">
@@ -3612,7 +3624,7 @@
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A261" s="1" t="s">
+      <c r="A261" t="s">
         <v>16</v>
       </c>
       <c r="B261">
@@ -3620,7 +3632,7 @@
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A262" s="1" t="s">
+      <c r="A262" t="s">
         <v>34</v>
       </c>
       <c r="B262">
@@ -3628,7 +3640,7 @@
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A263" s="1" t="s">
+      <c r="A263" t="s">
         <v>213</v>
       </c>
       <c r="B263">
@@ -3636,7 +3648,7 @@
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A264" s="1" t="s">
+      <c r="A264" t="s">
         <v>256</v>
       </c>
       <c r="B264">
@@ -3644,7 +3656,7 @@
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A265" s="1" t="s">
+      <c r="A265" t="s">
         <v>89</v>
       </c>
       <c r="B265">
@@ -3652,7 +3664,7 @@
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A266" s="1" t="s">
+      <c r="A266" t="s">
         <v>41</v>
       </c>
       <c r="B266">
@@ -3660,7 +3672,7 @@
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A267" s="1" t="s">
+      <c r="A267" t="s">
         <v>179</v>
       </c>
       <c r="B267">
@@ -3668,7 +3680,7 @@
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A268" s="1" t="s">
+      <c r="A268" t="s">
         <v>55</v>
       </c>
       <c r="B268">
@@ -3676,7 +3688,7 @@
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A269" s="1" t="s">
+      <c r="A269" t="s">
         <v>170</v>
       </c>
       <c r="B269">
@@ -3684,7 +3696,7 @@
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A270" s="1" t="s">
+      <c r="A270" t="s">
         <v>152</v>
       </c>
       <c r="B270">
@@ -3692,7 +3704,7 @@
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A271" s="1" t="s">
+      <c r="A271" t="s">
         <v>246</v>
       </c>
       <c r="B271">
@@ -3700,7 +3712,7 @@
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A272" s="1" t="s">
+      <c r="A272" t="s">
         <v>251</v>
       </c>
       <c r="B272">
@@ -3708,7 +3720,7 @@
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A273" s="1" t="s">
+      <c r="A273" t="s">
         <v>321</v>
       </c>
       <c r="B273">
@@ -3716,7 +3728,7 @@
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A274" s="1" t="s">
+      <c r="A274" t="s">
         <v>216</v>
       </c>
       <c r="B274">
@@ -3724,7 +3736,7 @@
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A275" s="1" t="s">
+      <c r="A275" t="s">
         <v>56</v>
       </c>
       <c r="B275">
@@ -3732,7 +3744,7 @@
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A276" s="1" t="s">
+      <c r="A276" t="s">
         <v>162</v>
       </c>
       <c r="B276">
@@ -3740,7 +3752,7 @@
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A277" s="1" t="s">
+      <c r="A277" t="s">
         <v>287</v>
       </c>
       <c r="B277">
@@ -3748,7 +3760,7 @@
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A278" s="1" t="s">
+      <c r="A278" t="s">
         <v>29</v>
       </c>
       <c r="B278">
@@ -3756,7 +3768,7 @@
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A279" s="1" t="s">
+      <c r="A279" t="s">
         <v>138</v>
       </c>
       <c r="B279">
@@ -3764,7 +3776,7 @@
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A280" s="1" t="s">
+      <c r="A280" t="s">
         <v>143</v>
       </c>
       <c r="B280">
@@ -3772,7 +3784,7 @@
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A281" s="1" t="s">
+      <c r="A281" t="s">
         <v>293</v>
       </c>
       <c r="B281">
@@ -3780,7 +3792,7 @@
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A282" s="1" t="s">
+      <c r="A282" t="s">
         <v>219</v>
       </c>
       <c r="B282">
@@ -3788,7 +3800,7 @@
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A283" s="1" t="s">
+      <c r="A283" t="s">
         <v>273</v>
       </c>
       <c r="B283">
@@ -3796,7 +3808,7 @@
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A284" s="1" t="s">
+      <c r="A284" t="s">
         <v>229</v>
       </c>
       <c r="B284">
@@ -3804,7 +3816,7 @@
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A285" s="1" t="s">
+      <c r="A285" t="s">
         <v>264</v>
       </c>
       <c r="B285">
@@ -3812,7 +3824,7 @@
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A286" s="1" t="s">
+      <c r="A286" t="s">
         <v>110</v>
       </c>
       <c r="B286">
@@ -3820,7 +3832,7 @@
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A287" s="1" t="s">
+      <c r="A287" t="s">
         <v>222</v>
       </c>
       <c r="B287">
@@ -3828,7 +3840,7 @@
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A288" s="1" t="s">
+      <c r="A288" t="s">
         <v>64</v>
       </c>
       <c r="B288">
@@ -3836,7 +3848,7 @@
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A289" s="1" t="s">
+      <c r="A289" t="s">
         <v>106</v>
       </c>
       <c r="B289">
@@ -3844,7 +3856,7 @@
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A290" s="1" t="s">
+      <c r="A290" t="s">
         <v>192</v>
       </c>
       <c r="B290">
@@ -3852,7 +3864,7 @@
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A291" s="1" t="s">
+      <c r="A291" t="s">
         <v>297</v>
       </c>
       <c r="B291">
@@ -3860,7 +3872,7 @@
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A292" s="1" t="s">
+      <c r="A292" t="s">
         <v>94</v>
       </c>
       <c r="B292">
@@ -3868,7 +3880,7 @@
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A293" s="1" t="s">
+      <c r="A293" t="s">
         <v>310</v>
       </c>
       <c r="B293">
@@ -3876,7 +3888,7 @@
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A294" s="1" t="s">
+      <c r="A294" t="s">
         <v>316</v>
       </c>
       <c r="B294">
@@ -3884,7 +3896,7 @@
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A295" s="1" t="s">
+      <c r="A295" t="s">
         <v>33</v>
       </c>
       <c r="B295">
@@ -3892,7 +3904,7 @@
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A296" s="1" t="s">
+      <c r="A296" t="s">
         <v>135</v>
       </c>
       <c r="B296">
@@ -3900,7 +3912,7 @@
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A297" s="1" t="s">
+      <c r="A297" t="s">
         <v>105</v>
       </c>
       <c r="B297">
@@ -3908,7 +3920,7 @@
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A298" s="1" t="s">
+      <c r="A298" t="s">
         <v>249</v>
       </c>
       <c r="B298">
@@ -3916,7 +3928,7 @@
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A299" s="1" t="s">
+      <c r="A299" t="s">
         <v>288</v>
       </c>
       <c r="B299">
@@ -3924,7 +3936,7 @@
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A300" s="1" t="s">
+      <c r="A300" t="s">
         <v>329</v>
       </c>
       <c r="B300">
@@ -3932,7 +3944,7 @@
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A301" s="1" t="s">
+      <c r="A301" t="s">
         <v>54</v>
       </c>
       <c r="B301">
@@ -3940,7 +3952,7 @@
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A302" s="1" t="s">
+      <c r="A302" t="s">
         <v>58</v>
       </c>
       <c r="B302">
@@ -3948,7 +3960,7 @@
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A303" s="1" t="s">
+      <c r="A303" t="s">
         <v>130</v>
       </c>
       <c r="B303">
@@ -3956,7 +3968,7 @@
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A304" s="1" t="s">
+      <c r="A304" t="s">
         <v>268</v>
       </c>
       <c r="B304">
@@ -3964,7 +3976,7 @@
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A305" s="1" t="s">
+      <c r="A305" t="s">
         <v>109</v>
       </c>
       <c r="B305">
@@ -3972,7 +3984,7 @@
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A306" s="1" t="s">
+      <c r="A306" t="s">
         <v>271</v>
       </c>
       <c r="B306">
@@ -3980,7 +3992,7 @@
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A307" s="1" t="s">
+      <c r="A307" t="s">
         <v>330</v>
       </c>
       <c r="B307">
@@ -3988,7 +4000,7 @@
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A308" s="1" t="s">
+      <c r="A308" t="s">
         <v>104</v>
       </c>
       <c r="B308">
@@ -3996,7 +4008,7 @@
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A309" s="1" t="s">
+      <c r="A309" t="s">
         <v>59</v>
       </c>
       <c r="B309">
@@ -4004,7 +4016,7 @@
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A310" s="1" t="s">
+      <c r="A310" t="s">
         <v>181</v>
       </c>
       <c r="B310">
@@ -4012,7 +4024,7 @@
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A311" s="1" t="s">
+      <c r="A311" t="s">
         <v>204</v>
       </c>
       <c r="B311">
@@ -4020,7 +4032,7 @@
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A312" s="1" t="s">
+      <c r="A312" t="s">
         <v>217</v>
       </c>
       <c r="B312">
@@ -4028,7 +4040,7 @@
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A313" s="1" t="s">
+      <c r="A313" t="s">
         <v>18</v>
       </c>
       <c r="B313">
@@ -4036,7 +4048,7 @@
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A314" s="1" t="s">
+      <c r="A314" t="s">
         <v>140</v>
       </c>
       <c r="B314">
@@ -4044,7 +4056,7 @@
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A315" s="1" t="s">
+      <c r="A315" t="s">
         <v>190</v>
       </c>
       <c r="B315">
@@ -4052,7 +4064,7 @@
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A316" s="1" t="s">
+      <c r="A316" t="s">
         <v>233</v>
       </c>
       <c r="B316">
@@ -4060,7 +4072,7 @@
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A317" s="1" t="s">
+      <c r="A317" t="s">
         <v>285</v>
       </c>
       <c r="B317">
@@ -4068,7 +4080,7 @@
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A318" s="1" t="s">
+      <c r="A318" t="s">
         <v>325</v>
       </c>
       <c r="B318">
@@ -4076,7 +4088,7 @@
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A319" s="1" t="s">
+      <c r="A319" t="s">
         <v>132</v>
       </c>
       <c r="B319">
@@ -4084,7 +4096,7 @@
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A320" s="1" t="s">
+      <c r="A320" t="s">
         <v>223</v>
       </c>
       <c r="B320">
@@ -4092,7 +4104,7 @@
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A321" s="1" t="s">
+      <c r="A321" t="s">
         <v>324</v>
       </c>
       <c r="B321">
@@ -4100,7 +4112,7 @@
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A322" s="1" t="s">
+      <c r="A322" t="s">
         <v>30</v>
       </c>
       <c r="B322">
@@ -4108,7 +4120,7 @@
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A323" s="1" t="s">
+      <c r="A323" t="s">
         <v>286</v>
       </c>
       <c r="B323">
@@ -4116,7 +4128,7 @@
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A324" s="1" t="s">
+      <c r="A324" t="s">
         <v>166</v>
       </c>
       <c r="B324">
@@ -4124,7 +4136,7 @@
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A325" s="1" t="s">
+      <c r="A325" t="s">
         <v>230</v>
       </c>
       <c r="B325">
@@ -4132,7 +4144,7 @@
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A326" s="1" t="s">
+      <c r="A326" t="s">
         <v>191</v>
       </c>
       <c r="B326">
@@ -4140,7 +4152,7 @@
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A327" s="1" t="s">
+      <c r="A327" t="s">
         <v>165</v>
       </c>
       <c r="B327">
@@ -4148,7 +4160,7 @@
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A328" s="1" t="s">
+      <c r="A328" t="s">
         <v>17</v>
       </c>
       <c r="B328">
@@ -4156,7 +4168,7 @@
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A329" s="1" t="s">
+      <c r="A329" t="s">
         <v>208</v>
       </c>
       <c r="B329">
@@ -4164,7 +4176,7 @@
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A330" s="1" t="s">
+      <c r="A330" t="s">
         <v>21</v>
       </c>
       <c r="B330">
@@ -4172,7 +4184,7 @@
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A331" s="1" t="s">
+      <c r="A331" t="s">
         <v>139</v>
       </c>
       <c r="B331">
@@ -4180,7 +4192,7 @@
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A332" s="1" t="s">
+      <c r="A332" t="s">
         <v>19</v>
       </c>
       <c r="B332">
@@ -4188,7 +4200,7 @@
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A333" s="1" t="s">
+      <c r="A333" t="s">
         <v>326</v>
       </c>
       <c r="B333">

--- a/codingame_scraper/medium_20250202.xlsx
+++ b/codingame_scraper/medium_20250202.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5102170ae7533958/Documents/Programmation/codingame_py/codingame_scraper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{E09026CA-BD3F-41B4-9345-23067BD1B31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CE803ED-B4B6-4893-98F0-7BABB9ADC5A8}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{E09026CA-BD3F-41B4-9345-23067BD1B31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC6A5FAE-4729-4605-BAEB-65753828E865}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{1162784B-948C-44FC-AD72-3852461035BB}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="335">
   <si>
     <t>titre</t>
   </si>
@@ -1109,10 +1109,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1462,7 +1458,7 @@
   <dimension ref="A1:C333"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1730,6 +1726,9 @@
       </c>
       <c r="B24">
         <v>2364</v>
+      </c>
+      <c r="C24" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">

--- a/codingame_scraper/medium_20250202.xlsx
+++ b/codingame_scraper/medium_20250202.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5102170ae7533958/Documents/Programmation/codingame_py/codingame_scraper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{E09026CA-BD3F-41B4-9345-23067BD1B31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC6A5FAE-4729-4605-BAEB-65753828E865}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{E09026CA-BD3F-41B4-9345-23067BD1B31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21C21B88-EE1C-42A3-94E6-E367CA904EB4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{1162784B-948C-44FC-AD72-3852461035BB}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="335">
   <si>
     <t>titre</t>
   </si>
@@ -1109,6 +1109,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1458,7 +1462,7 @@
   <dimension ref="A1:C333"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1738,6 +1742,9 @@
       <c r="B25">
         <v>2261</v>
       </c>
+      <c r="C25" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -1745,6 +1752,9 @@
       </c>
       <c r="B26">
         <v>2155</v>
+      </c>
+      <c r="C26" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">

--- a/codingame_scraper/medium_20250202.xlsx
+++ b/codingame_scraper/medium_20250202.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5102170ae7533958/Documents/Programmation/codingame_py/codingame_scraper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{E09026CA-BD3F-41B4-9345-23067BD1B31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21C21B88-EE1C-42A3-94E6-E367CA904EB4}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{E09026CA-BD3F-41B4-9345-23067BD1B31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94E4246A-CE64-4B98-9137-F289AB7406F0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{1162784B-948C-44FC-AD72-3852461035BB}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="335">
   <si>
     <t>titre</t>
   </si>
@@ -1462,7 +1462,7 @@
   <dimension ref="A1:C333"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1764,6 +1764,9 @@
       <c r="B27">
         <v>1932</v>
       </c>
+      <c r="C27" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -1771,6 +1774,9 @@
       </c>
       <c r="B28">
         <v>1778</v>
+      </c>
+      <c r="C28" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">

--- a/codingame_scraper/medium_20250202.xlsx
+++ b/codingame_scraper/medium_20250202.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5102170ae7533958/Documents/Programmation/codingame_py/codingame_scraper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{E09026CA-BD3F-41B4-9345-23067BD1B31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94E4246A-CE64-4B98-9137-F289AB7406F0}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{E09026CA-BD3F-41B4-9345-23067BD1B31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E834DB51-8DEB-4F3A-9763-AC6CA432F125}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{1162784B-948C-44FC-AD72-3852461035BB}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="336">
   <si>
     <t>titre</t>
   </si>
@@ -1053,6 +1053,9 @@
   </si>
   <si>
     <t>There is no spoon</t>
+  </si>
+  <si>
+    <t>En cours</t>
   </si>
 </sst>
 </file>
@@ -1462,7 +1465,7 @@
   <dimension ref="A1:C333"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1786,6 +1789,9 @@
       <c r="B29">
         <v>1748</v>
       </c>
+      <c r="C29" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -1793,6 +1799,9 @@
       </c>
       <c r="B30">
         <v>1712</v>
+      </c>
+      <c r="C30" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">

--- a/codingame_scraper/medium_20250202.xlsx
+++ b/codingame_scraper/medium_20250202.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5102170ae7533958/Documents/Programmation/codingame_py/codingame_scraper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{E09026CA-BD3F-41B4-9345-23067BD1B31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E834DB51-8DEB-4F3A-9763-AC6CA432F125}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{E09026CA-BD3F-41B4-9345-23067BD1B31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{144C2C91-C26A-40B1-A2D5-5E1F29BCD0E0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{1162784B-948C-44FC-AD72-3852461035BB}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="335">
   <si>
     <t>titre</t>
   </si>
@@ -1053,9 +1053,6 @@
   </si>
   <si>
     <t>There is no spoon</t>
-  </si>
-  <si>
-    <t>En cours</t>
   </si>
 </sst>
 </file>
@@ -1465,7 +1462,7 @@
   <dimension ref="A1:C333"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1801,7 +1798,7 @@
         <v>1712</v>
       </c>
       <c r="C30" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">

--- a/codingame_scraper/medium_20250202.xlsx
+++ b/codingame_scraper/medium_20250202.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5102170ae7533958/Documents/Programmation/codingame_py/codingame_scraper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{E09026CA-BD3F-41B4-9345-23067BD1B31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{144C2C91-C26A-40B1-A2D5-5E1F29BCD0E0}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{E09026CA-BD3F-41B4-9345-23067BD1B31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3F8E969-25E8-405B-889A-75EA834F7513}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{1162784B-948C-44FC-AD72-3852461035BB}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="335">
   <si>
     <t>titre</t>
   </si>
@@ -1462,7 +1462,7 @@
   <dimension ref="A1:C333"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1807,6 +1807,9 @@
       </c>
       <c r="B31">
         <v>1709</v>
+      </c>
+      <c r="C31" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
